--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Kremen2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H2">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I2">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J2">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +549,33 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.24237</v>
+        <v>0.3967905</v>
       </c>
       <c r="N2">
-        <v>0.4847399999999999</v>
+        <v>0.793581</v>
       </c>
       <c r="O2">
-        <v>0.5598978937702495</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5598978937702495</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.09657014517</v>
+        <v>0.06815690258024999</v>
       </c>
       <c r="R2">
-        <v>0.38628058068</v>
+        <v>0.272627610321</v>
       </c>
       <c r="S2">
-        <v>0.05008490411702852</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="T2">
-        <v>0.03441615278128269</v>
+        <v>0.02745976565347561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,25 +584,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.398441</v>
+        <v>4.055721</v>
       </c>
       <c r="H3">
-        <v>0.7968820000000001</v>
+        <v>12.167163</v>
       </c>
       <c r="I3">
-        <v>0.0894536390908099</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J3">
-        <v>0.06146862341190578</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,152 +611,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1905125</v>
+        <v>0.3967905</v>
       </c>
       <c r="N3">
-        <v>0.381025</v>
+        <v>0.793581</v>
       </c>
       <c r="O3">
-        <v>0.4401021062297506</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4401021062297506</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.07590799101250001</v>
+        <v>1.6092715634505</v>
       </c>
       <c r="R3">
-        <v>0.30363196405</v>
+        <v>9.655629380703001</v>
       </c>
       <c r="S3">
-        <v>0.03936873497378139</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="T3">
-        <v>0.02705247063062309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.055721</v>
-      </c>
-      <c r="H4">
-        <v>12.167163</v>
-      </c>
-      <c r="I4">
-        <v>0.9105463609091901</v>
-      </c>
-      <c r="J4">
-        <v>0.9385313765880943</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.5</v>
-      </c>
-      <c r="M4">
-        <v>0.24237</v>
-      </c>
-      <c r="N4">
-        <v>0.4847399999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.5598978937702495</v>
-      </c>
-      <c r="P4">
-        <v>0.5598978937702495</v>
-      </c>
-      <c r="Q4">
-        <v>0.98298509877</v>
-      </c>
-      <c r="R4">
-        <v>5.89791059262</v>
-      </c>
-      <c r="S4">
-        <v>0.5098129896532209</v>
-      </c>
-      <c r="T4">
-        <v>0.5254817409889668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.055721</v>
-      </c>
-      <c r="H5">
-        <v>12.167163</v>
-      </c>
-      <c r="I5">
-        <v>0.9105463609091901</v>
-      </c>
-      <c r="J5">
-        <v>0.9385313765880943</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-      <c r="M5">
-        <v>0.1905125</v>
-      </c>
-      <c r="N5">
-        <v>0.381025</v>
-      </c>
-      <c r="O5">
-        <v>0.4401021062297506</v>
-      </c>
-      <c r="P5">
-        <v>0.4401021062297506</v>
-      </c>
-      <c r="Q5">
-        <v>0.7726655470125</v>
-      </c>
-      <c r="R5">
-        <v>4.635993282075</v>
-      </c>
-      <c r="S5">
-        <v>0.4007333712559692</v>
-      </c>
-      <c r="T5">
-        <v>0.4130496355991276</v>
+        <v>0.9725402343465244</v>
       </c>
     </row>
   </sheetData>
